--- a/Chapter-12_Excel/line_chart.xlsx
+++ b/Chapter-12_Excel/line_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Desktop\Vandeilson_UNICSUL\git_repositorio\python_automate_boring_stuff_exercises\Chapter-12_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56281023-ECC7-409B-8708-909C1EC6BB95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD500AB-BC92-4669-84F1-25ECADE89201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,6 +152,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$2:$M$2</c:f>
@@ -159,40 +203,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>186</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>138</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>162</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>173</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -200,7 +244,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-720B-4AE3-ACBF-BC5B4D5CDBA7}"/>
+              <c16:uniqueId val="{00000000-741A-45D0-ABC4-EF7C93F576ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -226,6 +270,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$3:$M$3</c:f>
@@ -233,40 +321,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>166</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>192</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>175</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>143</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>125</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -274,7 +362,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-720B-4AE3-ACBF-BC5B4D5CDBA7}"/>
+              <c16:uniqueId val="{00000001-741A-45D0-ABC4-EF7C93F576ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -300,6 +388,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet!$B$4:$M$4</c:f>
@@ -307,40 +439,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>172</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>174</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -348,7 +480,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-720B-4AE3-ACBF-BC5B4D5CDBA7}"/>
+              <c16:uniqueId val="{00000002-741A-45D0-ABC4-EF7C93F576ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -371,6 +503,25 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Months</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -389,6 +540,24 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Sales (per unity)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -784,40 +953,40 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>148</v>
+      </c>
+      <c r="I2">
+        <v>140</v>
+      </c>
+      <c r="J2">
         <v>138</v>
       </c>
-      <c r="H2">
-        <v>45</v>
-      </c>
-      <c r="I2">
-        <v>174</v>
-      </c>
-      <c r="J2">
-        <v>48</v>
-      </c>
       <c r="K2">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="L2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="M2">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -825,40 +994,40 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C3">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="E3">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H3">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="I3">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="J3">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="K3">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="M3">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -866,40 +1035,40 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D4">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="G4">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="I4">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="J4">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="K4">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
